--- a/data/trans_orig/CoPsoQ-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CoPsoQ-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>188455</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>170705</v>
+        <v>169165</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>204929</v>
+        <v>204950</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6284667709036214</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5692736909293842</v>
+        <v>0.5641375059952335</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6834077414694024</v>
+        <v>0.6834757645866084</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>97</v>
@@ -764,19 +764,19 @@
         <v>107957</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>94684</v>
+        <v>95570</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>122170</v>
+        <v>120834</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5735695699404819</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5030549143302727</v>
+        <v>0.5077621981077416</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6490825806783467</v>
+        <v>0.6419865388029075</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>274</v>
@@ -785,19 +785,19 @@
         <v>296411</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>273507</v>
+        <v>272825</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>318201</v>
+        <v>317112</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.607296819444558</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5603704958089616</v>
+        <v>0.558973072581916</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6519403505727487</v>
+        <v>0.6497100271337237</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>57113</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>44129</v>
+        <v>43282</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>73621</v>
+        <v>72472</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1904632555575464</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1471646747440344</v>
+        <v>0.1443375466011453</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2455156066331133</v>
+        <v>0.241683751662657</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>38</v>
@@ -835,19 +835,19 @@
         <v>41617</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>29701</v>
+        <v>30764</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>53278</v>
+        <v>53822</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2211085631615395</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1578022004461388</v>
+        <v>0.1634465615173444</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2830635999386368</v>
+        <v>0.2859532194163616</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>91</v>
@@ -856,19 +856,19 @@
         <v>98730</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>79753</v>
+        <v>80857</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>117469</v>
+        <v>117370</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2022809741851356</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1634012975174518</v>
+        <v>0.1656618728444013</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.240674669657211</v>
+        <v>0.240471238696385</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>54296</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>42152</v>
+        <v>42434</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>69484</v>
+        <v>71813</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1810699735388323</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1405713665579078</v>
+        <v>0.1415095141075563</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2317187297940792</v>
+        <v>0.2394858041172721</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>35</v>
@@ -906,19 +906,19 @@
         <v>38645</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>27916</v>
+        <v>28068</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>51103</v>
+        <v>50710</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2053218668979786</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1483146155042888</v>
+        <v>0.1491264392791694</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2715062129036871</v>
+        <v>0.2694205111098671</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>85</v>
@@ -927,19 +927,19 @@
         <v>92942</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>75108</v>
+        <v>75775</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>111843</v>
+        <v>112675</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1904222063703064</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1538838245518327</v>
+        <v>0.1552496206988961</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2291479016278247</v>
+        <v>0.2308520760972006</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>173062</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>155476</v>
+        <v>156548</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>187785</v>
+        <v>189235</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6829206969010106</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6135274988067596</v>
+        <v>0.6177545385329053</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7410196187904667</v>
+        <v>0.7467435377474635</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>75</v>
@@ -1052,19 +1052,19 @@
         <v>81982</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>67649</v>
+        <v>68176</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>94785</v>
+        <v>95379</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4970318973737257</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4101345007043152</v>
+        <v>0.4133289385670992</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5746534808783081</v>
+        <v>0.5782560839092226</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>235</v>
@@ -1073,19 +1073,19 @@
         <v>255044</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>233927</v>
+        <v>232607</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>276984</v>
+        <v>275024</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6096315291059117</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.559157075798866</v>
+        <v>0.5560001995700434</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6620750911653052</v>
+        <v>0.6573901184115957</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>41644</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>30801</v>
+        <v>30122</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>56657</v>
+        <v>54987</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1643321651590344</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.121545654732651</v>
+        <v>0.1188647522819536</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2235730269154452</v>
+        <v>0.2169851132648161</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>43</v>
@@ -1123,19 +1123,19 @@
         <v>48646</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>37374</v>
+        <v>38155</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>61621</v>
+        <v>62097</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2949251955579698</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2265888627838416</v>
+        <v>0.2313198430658431</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3735890980408588</v>
+        <v>0.3764769675135275</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>80</v>
@@ -1144,19 +1144,19 @@
         <v>90290</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>73293</v>
+        <v>74950</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>110923</v>
+        <v>109922</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2158202297552727</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1751932686532101</v>
+        <v>0.1791530443475157</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2651395927595235</v>
+        <v>0.2627464066146903</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>38708</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26930</v>
+        <v>27248</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>53565</v>
+        <v>54239</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1527471379399549</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1062701377368905</v>
+        <v>0.1075228508405881</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.211374745213881</v>
+        <v>0.2140313258364313</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -1194,19 +1194,19 @@
         <v>34315</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>24709</v>
+        <v>24764</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>45592</v>
+        <v>45923</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2080429070683046</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1498035149221273</v>
+        <v>0.1501391505226235</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2764122581381003</v>
+        <v>0.2784158443494201</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>63</v>
@@ -1215,19 +1215,19 @@
         <v>73023</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>57711</v>
+        <v>58436</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>92907</v>
+        <v>91993</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1745482411388156</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1379460457986759</v>
+        <v>0.1396799760048027</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2220755434295408</v>
+        <v>0.2198918770215197</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>151250</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>134445</v>
+        <v>133567</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>167722</v>
+        <v>166283</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5524557118654649</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4910717495443416</v>
+        <v>0.4878671469123724</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6126216366581883</v>
+        <v>0.6073626970741505</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>58</v>
@@ -1340,19 +1340,19 @@
         <v>61417</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>51163</v>
+        <v>50704</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>71713</v>
+        <v>71411</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5767663492247863</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.480474539947416</v>
+        <v>0.4761626205388398</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6734527111719021</v>
+        <v>0.6706158097595255</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>206</v>
@@ -1361,19 +1361,19 @@
         <v>212668</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>192964</v>
+        <v>193963</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>231657</v>
+        <v>233020</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5592634246772069</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5074479243983777</v>
+        <v>0.5100752248786324</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6092005533091041</v>
+        <v>0.6127844466870257</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>46574</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>34235</v>
+        <v>35668</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>59347</v>
+        <v>60102</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1701172523729144</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1250454796258567</v>
+        <v>0.1302794728673294</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2167695578510849</v>
+        <v>0.2195277513839836</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -1411,19 +1411,19 @@
         <v>22379</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13908</v>
+        <v>14996</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31785</v>
+        <v>32891</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2101580442985028</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.130614481104672</v>
+        <v>0.1408238914863975</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2984946637727623</v>
+        <v>0.3088753494100464</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>67</v>
@@ -1432,19 +1432,19 @@
         <v>68953</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>54612</v>
+        <v>55301</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>85047</v>
+        <v>85291</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1813298836238021</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1436164298563433</v>
+        <v>0.1454273891564931</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2236534053623656</v>
+        <v>0.2242934331771317</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>75953</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>62259</v>
+        <v>62853</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>92396</v>
+        <v>91091</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2774270357616208</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2274075867418909</v>
+        <v>0.2295771635109644</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3374838590326656</v>
+        <v>0.3327195265050616</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -1482,19 +1482,19 @@
         <v>22689</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14641</v>
+        <v>15085</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>31396</v>
+        <v>31919</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2130756064767109</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1374905806992569</v>
+        <v>0.1416674730900051</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2948378723135268</v>
+        <v>0.2997480984529068</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>95</v>
@@ -1503,19 +1503,19 @@
         <v>98643</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>81593</v>
+        <v>81273</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>116122</v>
+        <v>115135</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2594066916989909</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2145689144646682</v>
+        <v>0.2137283642388585</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3053719664342232</v>
+        <v>0.3027776784925823</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>217332</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>196641</v>
+        <v>195552</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>240587</v>
+        <v>237151</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5263098296777973</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4762025448680177</v>
+        <v>0.4735647234532881</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5826249366653397</v>
+        <v>0.5743048572086175</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>162</v>
@@ -1628,19 +1628,19 @@
         <v>170799</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>152999</v>
+        <v>153523</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>188236</v>
+        <v>188489</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5794021654172763</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5190174785211954</v>
+        <v>0.5207960556133827</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6385544200048594</v>
+        <v>0.6394109977943717</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>372</v>
@@ -1649,19 +1649,19 @@
         <v>388131</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>360160</v>
+        <v>358773</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>414929</v>
+        <v>413659</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.548424245195844</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5089006208838149</v>
+        <v>0.5069418346686472</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5862892298935953</v>
+        <v>0.5844947884701408</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>90310</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>71557</v>
+        <v>73125</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>109655</v>
+        <v>107820</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2187018935925494</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1732893015495426</v>
+        <v>0.1770861576737792</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2655498148387848</v>
+        <v>0.2611070091352343</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>47</v>
@@ -1699,19 +1699,19 @@
         <v>49870</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>38489</v>
+        <v>38470</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>64287</v>
+        <v>63511</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1691739855920787</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1305672473259209</v>
+        <v>0.1305017189119951</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2180820785745311</v>
+        <v>0.2154487667692167</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>130</v>
@@ -1720,19 +1720,19 @@
         <v>140180</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>120071</v>
+        <v>120234</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>164274</v>
+        <v>164459</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1980721600913436</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1696584040959138</v>
+        <v>0.1698888748547908</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2321168140111375</v>
+        <v>0.2323787609404074</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>105294</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>87920</v>
+        <v>89085</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>125410</v>
+        <v>126752</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2549882767296534</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.212915494219106</v>
+        <v>0.215735865910604</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3037034813338053</v>
+        <v>0.3069523355298546</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>68</v>
@@ -1770,19 +1770,19 @@
         <v>74116</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>57852</v>
+        <v>59119</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>89453</v>
+        <v>88938</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.251423848990645</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1962504142249706</v>
+        <v>0.2005504070318775</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3034501732847864</v>
+        <v>0.301706043785697</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>164</v>
@@ -1791,19 +1791,19 @@
         <v>179410</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>155723</v>
+        <v>155119</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>204529</v>
+        <v>203922</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2535035947128125</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2200349119334939</v>
+        <v>0.2191805102009762</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2889960205639796</v>
+        <v>0.2881388067917356</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>79908</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>66648</v>
+        <v>67021</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>91561</v>
+        <v>93275</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5333332045502881</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4448298348633781</v>
+        <v>0.4473170188396378</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6111084987768727</v>
+        <v>0.6225447185410532</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>73</v>
@@ -1916,19 +1916,19 @@
         <v>80925</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>67111</v>
+        <v>67642</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>94462</v>
+        <v>93523</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4718271380814597</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3912842478579878</v>
+        <v>0.3943827928332794</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5507555552652534</v>
+        <v>0.5452793844266821</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>146</v>
@@ -1937,19 +1937,19 @@
         <v>160833</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>142607</v>
+        <v>141304</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>178619</v>
+        <v>178479</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.500504727666517</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4437849507048231</v>
+        <v>0.4397312112307227</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5558525504369282</v>
+        <v>0.5554177721003504</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>31598</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>22894</v>
+        <v>23281</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>42998</v>
+        <v>43490</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2108977811910481</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1528049381612036</v>
+        <v>0.1553822890609331</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2869847875287424</v>
+        <v>0.2902677176315602</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>39</v>
@@ -1987,19 +1987,19 @@
         <v>42231</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>31995</v>
+        <v>30862</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>55754</v>
+        <v>53359</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2462225360349423</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.186545410718446</v>
+        <v>0.1799394820526282</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3250669782595076</v>
+        <v>0.3111032955272558</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>70</v>
@@ -2008,19 +2008,19 @@
         <v>73829</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>59657</v>
+        <v>59020</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>91411</v>
+        <v>89226</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2297521473437817</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1856508310347013</v>
+        <v>0.1836681872743811</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2844661768936577</v>
+        <v>0.2776678736692966</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>38321</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>28288</v>
+        <v>27605</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>50081</v>
+        <v>49234</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2557690142586638</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1888064669432926</v>
+        <v>0.1842424328958626</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.334258667840821</v>
+        <v>0.3286053713941763</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>44</v>
@@ -2058,19 +2058,19 @@
         <v>48358</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>36882</v>
+        <v>36648</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>62163</v>
+        <v>61590</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.281950325883598</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2150365274102772</v>
+        <v>0.2136746651099798</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3624343786010995</v>
+        <v>0.3590944150595068</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>81</v>
@@ -2079,19 +2079,19 @@
         <v>86680</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>70885</v>
+        <v>71383</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>104292</v>
+        <v>103259</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2697431249897013</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2205892317487662</v>
+        <v>0.2221411513415597</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3245517556148861</v>
+        <v>0.3213356081458998</v>
       </c>
     </row>
     <row r="23">
@@ -2183,19 +2183,19 @@
         <v>810007</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>772590</v>
+        <v>767539</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>844490</v>
+        <v>845899</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5828143100462408</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5558919396994488</v>
+        <v>0.5522576416574617</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6076253407561226</v>
+        <v>0.6086394946735727</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>465</v>
@@ -2204,19 +2204,19 @@
         <v>503080</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>471463</v>
+        <v>474003</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>533551</v>
+        <v>533910</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5433142340123405</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5091686102007312</v>
+        <v>0.5119112018312167</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5762217168479726</v>
+        <v>0.5766099618323495</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1233</v>
@@ -2225,19 +2225,19 @@
         <v>1313087</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1260925</v>
+        <v>1260190</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1358322</v>
+        <v>1359877</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5670204211383862</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5444954630452787</v>
+        <v>0.5441783341445088</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5865539331078564</v>
+        <v>0.5872251502165156</v>
       </c>
     </row>
     <row r="25">
@@ -2254,19 +2254,19 @@
         <v>267240</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>239434</v>
+        <v>238738</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>303176</v>
+        <v>298992</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1922837252580313</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1722772927687312</v>
+        <v>0.171776257479993</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2181402377455117</v>
+        <v>0.2151299431834406</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>188</v>
@@ -2275,19 +2275,19 @@
         <v>204742</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>178590</v>
+        <v>177835</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>230615</v>
+        <v>231018</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2211164464912007</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1928732822431691</v>
+        <v>0.1920579658544087</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2490589983567557</v>
+        <v>0.2494937128371215</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>438</v>
@@ -2296,19 +2296,19 @@
         <v>471982</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>432499</v>
+        <v>431482</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>514061</v>
+        <v>513483</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2038123308150686</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1867628488158641</v>
+        <v>0.1863236682921159</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2219831909899737</v>
+        <v>0.2217333644599714</v>
       </c>
     </row>
     <row r="26">
@@ -2325,19 +2325,19 @@
         <v>312573</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>281758</v>
+        <v>278950</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>344247</v>
+        <v>347345</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2249019646957279</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2027296840138433</v>
+        <v>0.2007095625083857</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2476916184314259</v>
+        <v>0.2499208745971675</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>201</v>
@@ -2346,19 +2346,19 @@
         <v>218125</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>192378</v>
+        <v>193261</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>248534</v>
+        <v>245362</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2355693194964588</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2077634145738645</v>
+        <v>0.2087168315904143</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2684110291502007</v>
+        <v>0.2649854549762348</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>488</v>
@@ -2367,19 +2367,19 @@
         <v>530698</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>490943</v>
+        <v>491757</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>572871</v>
+        <v>577192</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2291672480465452</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2120000228384814</v>
+        <v>0.2123517700246179</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2473785216602129</v>
+        <v>0.2492444326575552</v>
       </c>
     </row>
     <row r="27">
@@ -2712,19 +2712,19 @@
         <v>155441</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>137667</v>
+        <v>139456</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>173113</v>
+        <v>173551</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5630840148770018</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4986994981987351</v>
+        <v>0.5051783495662566</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6270998407763586</v>
+        <v>0.6286865096904908</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>120</v>
@@ -2733,19 +2733,19 @@
         <v>122440</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>108064</v>
+        <v>108179</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>138125</v>
+        <v>136618</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.571683215828393</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5045637948490906</v>
+        <v>0.5050965650603022</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6449212278204867</v>
+        <v>0.6378845502051734</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>263</v>
@@ -2754,19 +2754,19 @@
         <v>277881</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>252141</v>
+        <v>253895</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>298926</v>
+        <v>298540</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5668409041015176</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5143351414537591</v>
+        <v>0.5179129996671541</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6097708520225199</v>
+        <v>0.6089833816470391</v>
       </c>
     </row>
     <row r="5">
@@ -2783,19 +2783,19 @@
         <v>64716</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>48697</v>
+        <v>51094</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>79858</v>
+        <v>80954</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2344318364648089</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1764032380379665</v>
+        <v>0.185087839159783</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2892844107277744</v>
+        <v>0.2932540302195398</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>46</v>
@@ -2804,19 +2804,19 @@
         <v>47784</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>37262</v>
+        <v>35370</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>62706</v>
+        <v>60624</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2231060953711057</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1739791999952638</v>
+        <v>0.1651445654841005</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.292780441422568</v>
+        <v>0.2830595398045905</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>103</v>
@@ -2825,19 +2825,19 @@
         <v>112499</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>92860</v>
+        <v>94858</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>133168</v>
+        <v>132626</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.229483754088887</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1894228785847404</v>
+        <v>0.1934977164914272</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2716458072172172</v>
+        <v>0.2705396386326449</v>
       </c>
     </row>
     <row r="6">
@@ -2854,19 +2854,19 @@
         <v>55896</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>43687</v>
+        <v>43258</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>71117</v>
+        <v>70938</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2024841486581893</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1582569837728065</v>
+        <v>0.1567000583168591</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2576205404987551</v>
+        <v>0.2569709971589716</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>43</v>
@@ -2875,19 +2875,19 @@
         <v>43951</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>32705</v>
+        <v>32145</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>56475</v>
+        <v>57444</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2052106888005014</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1527046177218876</v>
+        <v>0.1500871238467733</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2636890107126654</v>
+        <v>0.2682111096293816</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>95</v>
@@ -2896,19 +2896,19 @@
         <v>99847</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>83135</v>
+        <v>82830</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>119441</v>
+        <v>118195</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2036753418095954</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1695847083098961</v>
+        <v>0.1689631902366555</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2436450125716011</v>
+        <v>0.2411034444012182</v>
       </c>
     </row>
     <row r="7">
@@ -3000,19 +3000,19 @@
         <v>141310</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>125587</v>
+        <v>127052</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>157164</v>
+        <v>157218</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5809557765743751</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5163142059222268</v>
+        <v>0.5223396896878911</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.646135425817478</v>
+        <v>0.6463570132831582</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>101</v>
@@ -3021,19 +3021,19 @@
         <v>105426</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>91047</v>
+        <v>91824</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>118335</v>
+        <v>118970</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5572891144874783</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4812799399244683</v>
+        <v>0.4853885243717708</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6255268976528442</v>
+        <v>0.6288830420156529</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>232</v>
@@ -3042,19 +3042,19 @@
         <v>246736</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>226634</v>
+        <v>224438</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>267101</v>
+        <v>266749</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5706018625738792</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.524114569087718</v>
+        <v>0.5190357821624338</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6176981434592236</v>
+        <v>0.6168836758471242</v>
       </c>
     </row>
     <row r="9">
@@ -3071,19 +3071,19 @@
         <v>54602</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>41914</v>
+        <v>42341</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>69036</v>
+        <v>68380</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2244790724298725</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1723185010018737</v>
+        <v>0.1740722109950011</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2838239477585561</v>
+        <v>0.2811242348823463</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>36</v>
@@ -3092,19 +3092,19 @@
         <v>38264</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>27891</v>
+        <v>27849</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>50540</v>
+        <v>50529</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2022672064971171</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1474337280097446</v>
+        <v>0.147210644112133</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2671591138557563</v>
+        <v>0.267102221530907</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>85</v>
@@ -3113,19 +3113,19 @@
         <v>92866</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>75688</v>
+        <v>75579</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>112752</v>
+        <v>111969</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2147616163385202</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1750368400903082</v>
+        <v>0.1747845000997399</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2607517639125131</v>
+        <v>0.2589395159606669</v>
       </c>
     </row>
     <row r="10">
@@ -3142,19 +3142,19 @@
         <v>47325</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35127</v>
+        <v>35394</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>62225</v>
+        <v>61058</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1945651509957524</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1444165585122449</v>
+        <v>0.1455133560082875</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2558187508611371</v>
+        <v>0.2510214708771746</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -3163,19 +3163,19 @@
         <v>45486</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35132</v>
+        <v>34451</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>58354</v>
+        <v>58096</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2404436790154046</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1857105589742123</v>
+        <v>0.1821117857734061</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3084630915817289</v>
+        <v>0.3070984905228099</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>88</v>
@@ -3184,19 +3184,19 @@
         <v>92812</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>75416</v>
+        <v>75774</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>109559</v>
+        <v>111212</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2146365210876005</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1744077202764828</v>
+        <v>0.1752342308596631</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.253366041852412</v>
+        <v>0.2571901317012809</v>
       </c>
     </row>
     <row r="11">
@@ -3288,19 +3288,19 @@
         <v>129415</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>115308</v>
+        <v>114467</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>143763</v>
+        <v>145423</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5982442645912337</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5330299286218035</v>
+        <v>0.5291443330351772</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6645684345529411</v>
+        <v>0.6722447415277987</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>29</v>
@@ -3309,19 +3309,19 @@
         <v>30420</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>22677</v>
+        <v>23077</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>38411</v>
+        <v>39165</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4671470213626056</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3482442169420439</v>
+        <v>0.3543888742699997</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5898644727548029</v>
+        <v>0.6014400688033201</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>152</v>
@@ -3330,19 +3330,19 @@
         <v>159835</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>143773</v>
+        <v>142559</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>177838</v>
+        <v>176593</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5679121132525009</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5108406675925794</v>
+        <v>0.5065288866516838</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.631878385691213</v>
+        <v>0.6274542830132843</v>
       </c>
     </row>
     <row r="13">
@@ -3359,19 +3359,19 @@
         <v>48187</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36057</v>
+        <v>35200</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>61729</v>
+        <v>61582</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2227514056641416</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1666796262525729</v>
+        <v>0.1627173122014319</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2853548037620898</v>
+        <v>0.2846733136115922</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -3380,19 +3380,19 @@
         <v>17721</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11286</v>
+        <v>11405</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25154</v>
+        <v>26476</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2721400036704582</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1733187260863922</v>
+        <v>0.1751443815766233</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.386286818021301</v>
+        <v>0.406586621337604</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>60</v>
@@ -3401,19 +3401,19 @@
         <v>65908</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>50300</v>
+        <v>52608</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>81557</v>
+        <v>82332</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2341785142153327</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.178722221644667</v>
+        <v>0.18692408415623</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2897806721517872</v>
+        <v>0.2925356854795493</v>
       </c>
     </row>
     <row r="14">
@@ -3430,19 +3430,19 @@
         <v>38723</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>28633</v>
+        <v>28556</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>51897</v>
+        <v>52456</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1790043297446247</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.132361599043086</v>
+        <v>0.1320070372320452</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2399019891332288</v>
+        <v>0.2424885467549179</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>18</v>
@@ -3451,19 +3451,19 @@
         <v>16977</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11098</v>
+        <v>10847</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>25011</v>
+        <v>24304</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2607129749669362</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1704253148261443</v>
+        <v>0.1665770624253794</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3840814407261108</v>
+        <v>0.3732339132803424</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>55</v>
@@ -3472,19 +3472,19 @@
         <v>55700</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>42959</v>
+        <v>41925</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>70656</v>
+        <v>68898</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1979093725321664</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1526387479574577</v>
+        <v>0.14896381611</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2510493188503284</v>
+        <v>0.2448043253901118</v>
       </c>
     </row>
     <row r="15">
@@ -3576,19 +3576,19 @@
         <v>266116</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>244658</v>
+        <v>243725</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>288990</v>
+        <v>289710</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5456535302762667</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5016565963440899</v>
+        <v>0.4997435156692225</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5925559041999249</v>
+        <v>0.5940318927436918</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>224</v>
@@ -3597,19 +3597,19 @@
         <v>226610</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>207483</v>
+        <v>209041</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>244442</v>
+        <v>245123</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6209487066217813</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5685381682080234</v>
+        <v>0.5728050001985504</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6698114603383059</v>
+        <v>0.6716771239792264</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>476</v>
@@ -3618,19 +3618,19 @@
         <v>492725</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>461064</v>
+        <v>460795</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>520798</v>
+        <v>519961</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5778808095433728</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5407471675308451</v>
+        <v>0.5404317515429669</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6108046166635461</v>
+        <v>0.6098234568873779</v>
       </c>
     </row>
     <row r="17">
@@ -3647,19 +3647,19 @@
         <v>103716</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>85661</v>
+        <v>86648</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>123757</v>
+        <v>123990</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2126624055983948</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1756414396819535</v>
+        <v>0.1776653202080226</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2537548697401816</v>
+        <v>0.2542342634534704</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>75</v>
@@ -3668,19 +3668,19 @@
         <v>76059</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>59830</v>
+        <v>61043</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>90522</v>
+        <v>92142</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2084144703768122</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1639439057942078</v>
+        <v>0.1672686390945821</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2480461260357127</v>
+        <v>0.2524852142780658</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>173</v>
@@ -3689,19 +3689,19 @@
         <v>179775</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>157415</v>
+        <v>157199</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>204587</v>
+        <v>203578</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2108442360775969</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1846205020341945</v>
+        <v>0.1843673388382427</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2399442954911795</v>
+        <v>0.2387616881475194</v>
       </c>
     </row>
     <row r="18">
@@ -3718,19 +3718,19 @@
         <v>117870</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>101440</v>
+        <v>100058</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>139274</v>
+        <v>137908</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2416840641253384</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2079968764456626</v>
+        <v>0.2051633696690671</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2855733309626273</v>
+        <v>0.2827716703647991</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>61</v>
@@ -3739,19 +3739,19 @@
         <v>62273</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>49299</v>
+        <v>49002</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>75998</v>
+        <v>76595</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1706368230014066</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1350882101917753</v>
+        <v>0.134273647300083</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2082466521412932</v>
+        <v>0.2098820727212447</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>174</v>
@@ -3760,19 +3760,19 @@
         <v>180142</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>158278</v>
+        <v>157934</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>207377</v>
+        <v>206275</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2112749543790303</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1856327420837194</v>
+        <v>0.1852285534559785</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2432170688262101</v>
+        <v>0.2419247643228031</v>
       </c>
     </row>
     <row r="19">
@@ -3864,19 +3864,19 @@
         <v>85649</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>72574</v>
+        <v>70105</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>98933</v>
+        <v>99837</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4437272993106205</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3759864680756421</v>
+        <v>0.3631964596873026</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5125473136011446</v>
+        <v>0.5172317753936035</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>82</v>
@@ -3885,19 +3885,19 @@
         <v>84359</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>70894</v>
+        <v>70266</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>97919</v>
+        <v>97689</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4268771740180629</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3587397748895927</v>
+        <v>0.3555613497138462</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4954951704575996</v>
+        <v>0.4943294608551363</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>160</v>
@@ -3906,19 +3906,19 @@
         <v>170008</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>147871</v>
+        <v>147668</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>190608</v>
+        <v>189067</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4352030855419499</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3785341405228584</v>
+        <v>0.3780165848154938</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4879373548586679</v>
+        <v>0.4839921546597433</v>
       </c>
     </row>
     <row r="21">
@@ -3935,19 +3935,19 @@
         <v>49436</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>38059</v>
+        <v>37194</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>63016</v>
+        <v>60812</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2561159383577346</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1971726037114143</v>
+        <v>0.1926938232895067</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3264729209826304</v>
+        <v>0.315054707706972</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>44</v>
@@ -3956,19 +3956,19 @@
         <v>44370</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>33517</v>
+        <v>34214</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>57257</v>
+        <v>55998</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2245232990672831</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.169605664796959</v>
+        <v>0.1731300480606536</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2897348793191414</v>
+        <v>0.2833643867741705</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>89</v>
@@ -3977,19 +3977,19 @@
         <v>93806</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>78029</v>
+        <v>76804</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>112920</v>
+        <v>112113</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2401337182761275</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1997457230484077</v>
+        <v>0.19661173693603</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.289063162919938</v>
+        <v>0.286997261771965</v>
       </c>
     </row>
     <row r="22">
@@ -4006,19 +4006,19 @@
         <v>57937</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>46478</v>
+        <v>45482</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>72202</v>
+        <v>71958</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.300156762331645</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2407912123140347</v>
+        <v>0.2356290514182774</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3740627668734146</v>
+        <v>0.3727954773103546</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>66</v>
@@ -4027,19 +4027,19 @@
         <v>68890</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>56337</v>
+        <v>55521</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>81348</v>
+        <v>82687</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3485995269146541</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.285078978410118</v>
+        <v>0.2809511524924775</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4116404340714268</v>
+        <v>0.4184154187825408</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>119</v>
@@ -4048,19 +4048,19 @@
         <v>126826</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>108180</v>
+        <v>108474</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>146804</v>
+        <v>146472</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3246631961819226</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2769311800970485</v>
+        <v>0.2776833346582608</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3758035981493867</v>
+        <v>0.3749544870207694</v>
       </c>
     </row>
     <row r="23">
@@ -4152,19 +4152,19 @@
         <v>777931</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>740851</v>
+        <v>740255</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>821130</v>
+        <v>816648</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5492552692122116</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5230754902832964</v>
+        <v>0.5226546970597004</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5797559278839949</v>
+        <v>0.576591863405193</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>556</v>
@@ -4173,19 +4173,19 @@
         <v>569254</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>535373</v>
+        <v>539073</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>600352</v>
+        <v>603489</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5521225854072881</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5192613202925537</v>
+        <v>0.5228493024429979</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5822839487273128</v>
+        <v>0.5853264370964006</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1283</v>
@@ -4194,19 +4194,19 @@
         <v>1347184</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1294260</v>
+        <v>1297827</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1397974</v>
+        <v>1397298</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5504632151470372</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5288383436522964</v>
+        <v>0.5302956706061165</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5712158295252824</v>
+        <v>0.5709398576857776</v>
       </c>
     </row>
     <row r="25">
@@ -4223,19 +4223,19 @@
         <v>320655</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>288182</v>
+        <v>288422</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>354836</v>
+        <v>353110</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2263976476487986</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2034701630131225</v>
+        <v>0.2036393569267508</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.250530997247049</v>
+        <v>0.2493121224393628</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>218</v>
@@ -4244,19 +4244,19 @@
         <v>224198</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>200432</v>
+        <v>197645</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>253562</v>
+        <v>251938</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2174508191838959</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1944000125256802</v>
+        <v>0.1916969584822957</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2459306667171619</v>
+        <v>0.244356131734542</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>510</v>
@@ -4265,19 +4265,19 @@
         <v>544853</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>503130</v>
+        <v>504043</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>589505</v>
+        <v>590931</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2226285184916033</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.20558028693319</v>
+        <v>0.2059534345541926</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2408735222787144</v>
+        <v>0.2414559243348599</v>
       </c>
     </row>
     <row r="26">
@@ -4294,19 +4294,19 @@
         <v>317751</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>287154</v>
+        <v>288425</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>352645</v>
+        <v>352179</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2243470831389898</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.202743993763595</v>
+        <v>0.2036417663168986</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2489837949415027</v>
+        <v>0.2486548392917711</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>233</v>
@@ -4315,19 +4315,19 @@
         <v>237577</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>210905</v>
+        <v>210295</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>265162</v>
+        <v>266675</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.230426595408816</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2045573264901488</v>
+        <v>0.2039663551599668</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2571823407223648</v>
+        <v>0.2586491203681185</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>531</v>
@@ -4336,19 +4336,19 @@
         <v>555327</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>511771</v>
+        <v>514001</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>594565</v>
+        <v>598069</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2269082663613596</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2091109356938454</v>
+        <v>0.2100221947772792</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2429409795099508</v>
+        <v>0.244372498035886</v>
       </c>
     </row>
     <row r="27">
@@ -4681,19 +4681,19 @@
         <v>38226</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27304</v>
+        <v>27974</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50195</v>
+        <v>51082</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.388452517794263</v>
+        <v>0.3884525177942632</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2774617382892911</v>
+        <v>0.2842691587881507</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5100889526452902</v>
+        <v>0.5191009160378228</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -4702,19 +4702,19 @@
         <v>30245</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22775</v>
+        <v>22855</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38224</v>
+        <v>38614</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3573753872055571</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2691100118827357</v>
+        <v>0.2700604594136497</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4516632477246108</v>
+        <v>0.4562656545811667</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>72</v>
@@ -4723,19 +4723,19 @@
         <v>68470</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>54131</v>
+        <v>55377</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>83328</v>
+        <v>82454</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3740833361476351</v>
+        <v>0.374083336147635</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.295743970726261</v>
+        <v>0.3025511608435149</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4552595076359206</v>
+        <v>0.450482261312077</v>
       </c>
     </row>
     <row r="5">
@@ -4752,19 +4752,19 @@
         <v>26929</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18169</v>
+        <v>17844</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>39321</v>
+        <v>37208</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2736562734663014</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1846362332819803</v>
+        <v>0.1813303760971353</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3995830778017477</v>
+        <v>0.3781073665017774</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>25</v>
@@ -4773,19 +4773,19 @@
         <v>17872</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11684</v>
+        <v>12132</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25494</v>
+        <v>25288</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2111832990666093</v>
+        <v>0.2111832990666094</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1380601933946653</v>
+        <v>0.1433523124542195</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3012443930533974</v>
+        <v>0.2988103440262829</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>48</v>
@@ -4794,19 +4794,19 @@
         <v>44802</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>33799</v>
+        <v>34509</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>58744</v>
+        <v>57595</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2447705462402313</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1846599382230065</v>
+        <v>0.1885361631663333</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3209462429318959</v>
+        <v>0.3146673066878232</v>
       </c>
     </row>
     <row r="6">
@@ -4823,19 +4823,19 @@
         <v>33250</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22191</v>
+        <v>22580</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>44786</v>
+        <v>45876</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3378912087394356</v>
+        <v>0.3378912087394357</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2255061970533579</v>
+        <v>0.2294626789697754</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4551196870164703</v>
+        <v>0.4662007981027514</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>43</v>
@@ -4844,19 +4844,19 @@
         <v>36513</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>28296</v>
+        <v>28435</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>45108</v>
+        <v>44962</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4314413137278337</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3343499096736282</v>
+        <v>0.3359866222624286</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5329998710813847</v>
+        <v>0.5312787732392381</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>69</v>
@@ -4865,19 +4865,19 @@
         <v>69763</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>55629</v>
+        <v>56458</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>83961</v>
+        <v>83751</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.3811461176121338</v>
+        <v>0.3811461176121337</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3039253426190617</v>
+        <v>0.308452214932771</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4587134509782612</v>
+        <v>0.4575689908958743</v>
       </c>
     </row>
     <row r="7">
@@ -4969,19 +4969,19 @@
         <v>26832</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>18029</v>
+        <v>17822</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>35936</v>
+        <v>36544</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3706841713023288</v>
+        <v>0.3706841713023289</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2490741745826307</v>
+        <v>0.2462144924374075</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4964486403359639</v>
+        <v>0.5048430138694769</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>34</v>
@@ -4990,19 +4990,19 @@
         <v>26949</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>20035</v>
+        <v>19721</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>34548</v>
+        <v>34087</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.4031811773741916</v>
+        <v>0.4031811773741915</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2997440201340786</v>
+        <v>0.2950488998318552</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5168753358831862</v>
+        <v>0.5099725823680613</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>55</v>
@@ -5011,19 +5011,19 @@
         <v>53782</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>42462</v>
+        <v>42792</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>65302</v>
+        <v>66671</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.3862855646548673</v>
+        <v>0.3862855646548674</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3049784859535116</v>
+        <v>0.3073527552917577</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4690288754492441</v>
+        <v>0.478862124912289</v>
       </c>
     </row>
     <row r="9">
@@ -5040,19 +5040,19 @@
         <v>18288</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11827</v>
+        <v>11274</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>28438</v>
+        <v>27200</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2526496653130247</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1633898994412914</v>
+        <v>0.1557435074962028</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3928721836734191</v>
+        <v>0.3757617453320112</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>18</v>
@@ -5061,19 +5061,19 @@
         <v>13353</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>8099</v>
+        <v>8398</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>19701</v>
+        <v>20045</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.1997720819718409</v>
+        <v>0.1997720819718408</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1211677688944545</v>
+        <v>0.1256402652341795</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2947501193301296</v>
+        <v>0.2998905747240159</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>35</v>
@@ -5082,19 +5082,19 @@
         <v>31641</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>22316</v>
+        <v>21997</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>41769</v>
+        <v>42898</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2272638197550324</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1602822903237325</v>
+        <v>0.1579910966280256</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3000065359650372</v>
+        <v>0.3081113541703213</v>
       </c>
     </row>
     <row r="10">
@@ -5111,19 +5111,19 @@
         <v>27265</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19004</v>
+        <v>19055</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36315</v>
+        <v>36366</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3766661633846464</v>
+        <v>0.3766661633846465</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2625363859812903</v>
+        <v>0.2632383065894474</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5016862038790758</v>
+        <v>0.5023869786559069</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>33</v>
@@ -5132,19 +5132,19 @@
         <v>26539</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19568</v>
+        <v>19766</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33993</v>
+        <v>34779</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3970467406539677</v>
+        <v>0.3970467406539675</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2927562447776385</v>
+        <v>0.2957227242257184</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5085624538794601</v>
+        <v>0.520318523329014</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>57</v>
@@ -5153,19 +5153,19 @@
         <v>53805</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>42432</v>
+        <v>42672</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>66728</v>
+        <v>65795</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3864506155901003</v>
+        <v>0.3864506155901002</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3047667161226703</v>
+        <v>0.3064930600934874</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4792736740150547</v>
+        <v>0.4725678803371207</v>
       </c>
     </row>
     <row r="11">
@@ -5257,19 +5257,19 @@
         <v>30312</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21103</v>
+        <v>21332</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>40493</v>
+        <v>41420</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4372923411034613</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3044309661090869</v>
+        <v>0.3077381694139864</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5841598905812692</v>
+        <v>0.5975396985403651</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>20</v>
@@ -5278,19 +5278,19 @@
         <v>17305</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12130</v>
+        <v>12064</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>21640</v>
+        <v>21805</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6195702173465882</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4342912974249389</v>
+        <v>0.4319288425049367</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7747765336060638</v>
+        <v>0.7806906346593667</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>43</v>
@@ -5299,19 +5299,19 @@
         <v>47617</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>36350</v>
+        <v>37382</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>58475</v>
+        <v>59375</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4896450165502062</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3737787161037736</v>
+        <v>0.3843975516986223</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6012875862950825</v>
+        <v>0.6105501763285998</v>
       </c>
     </row>
     <row r="13">
@@ -5328,19 +5328,19 @@
         <v>16190</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9022</v>
+        <v>9245</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26430</v>
+        <v>26389</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2335641854133799</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1301564459364154</v>
+        <v>0.1333638739825697</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3812909027311518</v>
+        <v>0.3806974717725223</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -5349,19 +5349,19 @@
         <v>5560</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2475</v>
+        <v>2738</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9898</v>
+        <v>10243</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1990453762596428</v>
+        <v>0.1990453762596429</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08861720919396712</v>
+        <v>0.09801694164949597</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3543813330401193</v>
+        <v>0.366709061128566</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -5370,19 +5370,19 @@
         <v>21750</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14284</v>
+        <v>13521</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>32780</v>
+        <v>32347</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2236499157846111</v>
+        <v>0.223649915784611</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1468766778178102</v>
+        <v>0.1390302344342039</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3370750840007026</v>
+        <v>0.3326240351725372</v>
       </c>
     </row>
     <row r="14">
@@ -5399,19 +5399,19 @@
         <v>22816</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13705</v>
+        <v>14154</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>32026</v>
+        <v>32234</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3291434734831587</v>
+        <v>0.3291434734831585</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1977060188746771</v>
+        <v>0.20418525296564</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4620213865655526</v>
+        <v>0.4650157571035359</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -5420,19 +5420,19 @@
         <v>5066</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2084</v>
+        <v>1984</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10229</v>
+        <v>10026</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.181384406393769</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07460116290646221</v>
+        <v>0.07102031127435526</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3662346148248729</v>
+        <v>0.3589569437198496</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>25</v>
@@ -5441,19 +5441,19 @@
         <v>27882</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>18767</v>
+        <v>17813</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>38742</v>
+        <v>37774</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2867050676651827</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1929770303871284</v>
+        <v>0.1831687828122855</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3983759849261166</v>
+        <v>0.3884280757322818</v>
       </c>
     </row>
     <row r="15">
@@ -5545,19 +5545,19 @@
         <v>53691</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>40459</v>
+        <v>40762</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>66353</v>
+        <v>67369</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4012568051981942</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3023672905495568</v>
+        <v>0.3046283208584247</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4958784803161115</v>
+        <v>0.5034723974576348</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>77</v>
@@ -5566,19 +5566,19 @@
         <v>61468</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>52401</v>
+        <v>51622</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>70574</v>
+        <v>70833</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.5443199334216098</v>
+        <v>0.5443199334216099</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4640223512683126</v>
+        <v>0.4571250964613501</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6249527310278999</v>
+        <v>0.6272431880877088</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>123</v>
@@ -5587,19 +5587,19 @@
         <v>115160</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>97934</v>
+        <v>99867</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>129143</v>
+        <v>131553</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.4667348430920639</v>
+        <v>0.466734843092064</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3969181109985838</v>
+        <v>0.4047535194807691</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5234084643970133</v>
+        <v>0.5331759702138335</v>
       </c>
     </row>
     <row r="17">
@@ -5616,19 +5616,19 @@
         <v>39988</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>29009</v>
+        <v>28029</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>53383</v>
+        <v>52341</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2988491724780402</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2167970842603791</v>
+        <v>0.2094691608339969</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3989543929340233</v>
+        <v>0.3911651449676431</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>40</v>
@@ -5637,19 +5637,19 @@
         <v>29344</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>22400</v>
+        <v>21672</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>37921</v>
+        <v>38374</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2598511092325835</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1983539439458382</v>
+        <v>0.1919085652411991</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3358053438300951</v>
+        <v>0.3398167434313855</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>73</v>
@@ -5658,19 +5658,19 @@
         <v>69333</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>54536</v>
+        <v>55830</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>84364</v>
+        <v>84795</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2810002920943691</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2210311954727489</v>
+        <v>0.2262765374947465</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3419200416275047</v>
+        <v>0.3436677368091403</v>
       </c>
     </row>
     <row r="18">
@@ -5687,19 +5687,19 @@
         <v>40128</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>28587</v>
+        <v>29045</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>53182</v>
+        <v>53285</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2998940223237658</v>
+        <v>0.2998940223237657</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2136391676384508</v>
+        <v>0.2170676283237309</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3974485278369738</v>
+        <v>0.3982208009146201</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>28</v>
@@ -5708,19 +5708,19 @@
         <v>22114</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>15019</v>
+        <v>15462</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>30907</v>
+        <v>29857</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1958289573458065</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1329963461301085</v>
+        <v>0.1369232938686895</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2736910347722121</v>
+        <v>0.2643891735466056</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>63</v>
@@ -5729,19 +5729,19 @@
         <v>62243</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>48674</v>
+        <v>49724</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>77385</v>
+        <v>78594</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.2522648648135669</v>
+        <v>0.252264864813567</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1972738575375486</v>
+        <v>0.2015299709911535</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3136340919502816</v>
+        <v>0.3185365805941237</v>
       </c>
     </row>
     <row r="19">
@@ -5833,19 +5833,19 @@
         <v>37861</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>26884</v>
+        <v>26491</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>50683</v>
+        <v>50153</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.40977453056412</v>
+        <v>0.4097745305641201</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2909697118276498</v>
+        <v>0.286713010493951</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5485462088495385</v>
+        <v>0.5428158629858886</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>54</v>
@@ -5854,19 +5854,19 @@
         <v>41023</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>32385</v>
+        <v>32791</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>48700</v>
+        <v>48880</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4778585156797343</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3772453837245799</v>
+        <v>0.3819759802486136</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5672906918656653</v>
+        <v>0.5693813705442762</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>84</v>
@@ -5875,19 +5875,19 @@
         <v>78884</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>65157</v>
+        <v>63603</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>93412</v>
+        <v>93173</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4425660064128094</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3655525390287676</v>
+        <v>0.3568342283794332</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5240761532764667</v>
+        <v>0.5227304538044943</v>
       </c>
     </row>
     <row r="21">
@@ -5904,19 +5904,19 @@
         <v>26556</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>17316</v>
+        <v>17379</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>38252</v>
+        <v>38431</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2874172012163022</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1874120255843384</v>
+        <v>0.1880967873183019</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4140043451757917</v>
+        <v>0.4159462867629667</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>30</v>
@@ -5925,19 +5925,19 @@
         <v>23915</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>17153</v>
+        <v>16914</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>33025</v>
+        <v>31852</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2785760118160684</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1998132236997195</v>
+        <v>0.1970273385880127</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3846967734350232</v>
+        <v>0.3710349023547588</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>50</v>
@@ -5946,19 +5946,19 @@
         <v>50471</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>38911</v>
+        <v>39397</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>64133</v>
+        <v>65220</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2831589949993902</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2183065080212142</v>
+        <v>0.2210299314975477</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3598090789912966</v>
+        <v>0.3659048445959196</v>
       </c>
     </row>
     <row r="22">
@@ -5975,19 +5975,19 @@
         <v>27978</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16872</v>
+        <v>16720</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>39934</v>
+        <v>40408</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3028082682195777</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1826111592077371</v>
+        <v>0.1809649757982214</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4322083776471995</v>
+        <v>0.4373365772571699</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>28</v>
@@ -5996,19 +5996,19 @@
         <v>20909</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14896</v>
+        <v>14295</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>29370</v>
+        <v>28234</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2435654725041973</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.173521550781622</v>
+        <v>0.1665122332234119</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3421243186508045</v>
+        <v>0.3288874576889175</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>45</v>
@@ -6017,19 +6017,19 @@
         <v>48887</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>36052</v>
+        <v>35986</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>65045</v>
+        <v>64926</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2742749985878004</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2022646685102757</v>
+        <v>0.2018919355327703</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3649224739702022</v>
+        <v>0.3642594351512578</v>
       </c>
     </row>
     <row r="23">
@@ -6121,19 +6121,19 @@
         <v>186922</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>163217</v>
+        <v>163306</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>212281</v>
+        <v>213135</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4008533523755654</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.350018509242834</v>
+        <v>0.3502080495676911</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4552353598814346</v>
+        <v>0.4570665158599631</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>225</v>
@@ -6142,19 +6142,19 @@
         <v>176991</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>160120</v>
+        <v>159135</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>194926</v>
+        <v>194702</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.4680098715969239</v>
+        <v>0.4680098715969237</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4233993488824917</v>
+        <v>0.4207960435658382</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5154366783637603</v>
+        <v>0.5148444170648494</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>377</v>
@@ -6163,19 +6163,19 @@
         <v>363913</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>332258</v>
+        <v>332188</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>393625</v>
+        <v>395959</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4309272488926465</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.393443495479832</v>
+        <v>0.393359946822677</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4661107485527036</v>
+        <v>0.4688748952939101</v>
       </c>
     </row>
     <row r="25">
@@ -6192,19 +6192,19 @@
         <v>127952</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>105499</v>
+        <v>106731</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>150238</v>
+        <v>150253</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.2743913100547952</v>
+        <v>0.2743913100547953</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2262423662939421</v>
+        <v>0.2288832471494183</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3221840271110907</v>
+        <v>0.3222157230780971</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>121</v>
@@ -6213,19 +6213,19 @@
         <v>90044</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>76621</v>
+        <v>75374</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>105306</v>
+        <v>104408</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2381009344340281</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2026061402640597</v>
+        <v>0.1993081438091302</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2784582162445139</v>
+        <v>0.2760817405420784</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>227</v>
@@ -6234,19 +6234,19 @@
         <v>217996</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>193102</v>
+        <v>189982</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>245890</v>
+        <v>244872</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2581398274937716</v>
+        <v>0.2581398274937717</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2286614695086178</v>
+        <v>0.2249670552673462</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2911701246429251</v>
+        <v>0.2899650714670632</v>
       </c>
     </row>
     <row r="26">
@@ -6263,19 +6263,19 @@
         <v>151437</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>126867</v>
+        <v>127528</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>175982</v>
+        <v>176162</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3247553375696394</v>
+        <v>0.3247553375696395</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2720658630437044</v>
+        <v>0.2734822844442138</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3773908632123224</v>
+        <v>0.377777457490332</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>138</v>
@@ -6284,19 +6284,19 @@
         <v>111142</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>94108</v>
+        <v>95957</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>127625</v>
+        <v>128042</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2938891939690481</v>
+        <v>0.293889193969048</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2488458457396287</v>
+        <v>0.2537347954636941</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3374745145092732</v>
+        <v>0.338578231050128</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>259</v>
@@ -6305,19 +6305,19 @@
         <v>262579</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>233540</v>
+        <v>234156</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>292610</v>
+        <v>290565</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3109329236135819</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2765467990612482</v>
+        <v>0.2772754178283534</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3464938961049172</v>
+        <v>0.344072290496416</v>
       </c>
     </row>
     <row r="27">
